--- a/backend/resource/libot.xlsx
+++ b/backend/resource/libot.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="room" sheetId="1" r:id="rId1"/>
@@ -2442,10 +2442,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>家谱旧方志阅览室，家谱，旧方志</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>步行梯</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2458,10 +2454,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>古籍馆_文津楼_F2_办证处_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>办证的地方，办证服务台，办证处</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2498,10 +2490,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>年鉴新方志阅览室，年鉴，新方志</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>日本出版物文库阅览室</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2586,10 +2574,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>总馆北区_F_4人工复制处_5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>总馆北区_F4_自助复制处_4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2702,10 +2686,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>中文书借阅室，中文图书借书区，中文图书借阅区，中文书借书区，中文借书区</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>中文书阅览室，中文图书阅览室，中文图书阅览区，总馆北区中文图书区</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3295,6 +3275,26 @@
   </si>
   <si>
     <t>中文报纸区，中文期刊区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总馆北区_F4人工复制处_5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中文书借阅室，中文图书借书区，中文图书借阅区，中文书借书区，中文借书区，中文书借阅区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>古籍馆文津楼_F2_办证处_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年鉴新方志阅览室，年鉴区，新方志区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家谱旧方志阅览室，家谱区，旧方志区</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3785,13 +3785,13 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:AA107"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U45" sqref="U45"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B88" sqref="B88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="42.125" customWidth="1"/>
+    <col min="1" max="1" width="42.75" customWidth="1"/>
     <col min="2" max="2" width="87" customWidth="1"/>
     <col min="3" max="3" width="16.25" customWidth="1"/>
     <col min="4" max="4" width="53.875" customWidth="1"/>
@@ -3995,7 +3995,7 @@
         <v>591</v>
       </c>
       <c r="B5" t="s">
-        <v>675</v>
+        <v>820</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>39</v>
@@ -4157,7 +4157,7 @@
         <v>179</v>
       </c>
       <c r="B8" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="C8" t="s">
         <v>44</v>
@@ -4214,7 +4214,7 @@
         <v>148</v>
       </c>
       <c r="U8" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="V8" t="s">
         <v>389</v>
@@ -4273,7 +4273,7 @@
         <v>597</v>
       </c>
       <c r="B12" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="C12" t="s">
         <v>48</v>
@@ -4323,7 +4323,7 @@
         <v>322</v>
       </c>
       <c r="B13" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="U13" t="s">
         <v>0</v>
@@ -4337,7 +4337,7 @@
         <v>3</v>
       </c>
       <c r="B14" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="U14" t="s">
         <v>0</v>
@@ -4365,7 +4365,7 @@
         <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="U16" t="s">
         <v>0</v>
@@ -4379,7 +4379,7 @@
         <v>180</v>
       </c>
       <c r="B17" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="C17" t="s">
         <v>43</v>
@@ -4527,7 +4527,7 @@
         <v>198</v>
       </c>
       <c r="B19" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="C19" t="s">
         <v>31</v>
@@ -4597,7 +4597,7 @@
         <v>257</v>
       </c>
       <c r="B21" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="C21" t="s">
         <v>203</v>
@@ -4685,7 +4685,7 @@
         <v>193</v>
       </c>
       <c r="B23" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="C23" t="s">
         <v>195</v>
@@ -4732,10 +4732,10 @@
     </row>
     <row r="24" spans="1:27" ht="28.5" hidden="1">
       <c r="A24" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="B24" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="C24" t="s">
         <v>51</v>
@@ -4785,7 +4785,7 @@
         <v>323</v>
       </c>
       <c r="B25" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="U25" t="s">
         <v>0</v>
@@ -4799,7 +4799,7 @@
         <v>8</v>
       </c>
       <c r="B26" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="U26" t="s">
         <v>0</v>
@@ -4813,7 +4813,7 @@
         <v>9</v>
       </c>
       <c r="B27" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="U27" t="s">
         <v>0</v>
@@ -4827,7 +4827,7 @@
         <v>331</v>
       </c>
       <c r="B28" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="C28" t="s">
         <v>42</v>
@@ -4912,10 +4912,10 @@
     </row>
     <row r="30" spans="1:27" ht="28.5" hidden="1">
       <c r="A30" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="B30" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="C30" t="s">
         <v>55</v>
@@ -4963,7 +4963,7 @@
         <v>10</v>
       </c>
       <c r="B31" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="U31" t="s">
         <v>0</v>
@@ -4977,7 +4977,7 @@
         <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="U32" t="s">
         <v>0</v>
@@ -4988,10 +4988,10 @@
     </row>
     <row r="33" spans="1:27" hidden="1">
       <c r="A33" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="B33" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="C33" t="s">
         <v>221</v>
@@ -5062,7 +5062,7 @@
         <v>12</v>
       </c>
       <c r="B34" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="C34" t="s">
         <v>58</v>
@@ -5127,10 +5127,10 @@
     </row>
     <row r="35" spans="1:27" ht="71.25" hidden="1">
       <c r="A35" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="B35" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="C35" t="s">
         <v>48</v>
@@ -5204,7 +5204,7 @@
         <v>544</v>
       </c>
       <c r="B36" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="C36" t="s">
         <v>48</v>
@@ -5278,7 +5278,7 @@
         <v>13</v>
       </c>
       <c r="B37" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="C37" t="s">
         <v>218</v>
@@ -5349,7 +5349,7 @@
         <v>14</v>
       </c>
       <c r="B38" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="C38" t="s">
         <v>225</v>
@@ -5434,10 +5434,10 @@
     </row>
     <row r="40" spans="1:27" ht="28.5" hidden="1">
       <c r="A40" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="B40" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="C40" t="s">
         <v>53</v>
@@ -5484,10 +5484,10 @@
     </row>
     <row r="41" spans="1:27" ht="28.5" hidden="1">
       <c r="A41" t="s">
-        <v>646</v>
+        <v>819</v>
       </c>
       <c r="B41" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="C41" t="s">
         <v>53</v>
@@ -5537,7 +5537,7 @@
         <v>324</v>
       </c>
       <c r="B42" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="U42" t="s">
         <v>0</v>
@@ -5551,7 +5551,7 @@
         <v>15</v>
       </c>
       <c r="B43" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="U43" t="s">
         <v>0</v>
@@ -5560,12 +5560,12 @@
         <v>392</v>
       </c>
     </row>
-    <row r="44" spans="1:27" ht="42.75">
+    <row r="44" spans="1:27" ht="42.75" hidden="1">
       <c r="A44" t="s">
         <v>320</v>
       </c>
       <c r="B44" t="s">
-        <v>811</v>
+        <v>806</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>37</v>
@@ -5628,12 +5628,12 @@
         <v>156</v>
       </c>
     </row>
-    <row r="45" spans="1:27" ht="42.75">
+    <row r="45" spans="1:27" ht="42.75" hidden="1">
       <c r="A45" t="s">
         <v>321</v>
       </c>
       <c r="B45" t="s">
-        <v>811</v>
+        <v>806</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>36</v>
@@ -5715,7 +5715,7 @@
         <v>199</v>
       </c>
       <c r="B47" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="C47" t="s">
         <v>78</v>
@@ -5783,10 +5783,10 @@
     </row>
     <row r="48" spans="1:27" hidden="1">
       <c r="A48" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="B48" t="s">
-        <v>812</v>
+        <v>807</v>
       </c>
       <c r="C48" t="s">
         <v>82</v>
@@ -5895,10 +5895,10 @@
     </row>
     <row r="50" spans="1:27" ht="28.5" hidden="1">
       <c r="A50" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="B50" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="C50" t="s">
         <v>118</v>
@@ -5960,7 +5960,7 @@
         <v>19</v>
       </c>
       <c r="B51" t="s">
-        <v>813</v>
+        <v>808</v>
       </c>
       <c r="C51" t="s">
         <v>103</v>
@@ -6025,10 +6025,10 @@
     </row>
     <row r="52" spans="1:27" ht="71.25" hidden="1">
       <c r="A52" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="B52" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="C52" t="s">
         <v>83</v>
@@ -6102,7 +6102,7 @@
         <v>20</v>
       </c>
       <c r="B53" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="C53" t="s">
         <v>108</v>
@@ -6167,10 +6167,10 @@
     </row>
     <row r="54" spans="1:27" hidden="1">
       <c r="A54" t="s">
+        <v>656</v>
+      </c>
+      <c r="B54" t="s">
         <v>660</v>
-      </c>
-      <c r="B54" t="s">
-        <v>664</v>
       </c>
       <c r="C54" t="s">
         <v>288</v>
@@ -6220,7 +6220,7 @@
         <v>166</v>
       </c>
       <c r="B55" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="C55" t="s">
         <v>167</v>
@@ -6279,7 +6279,7 @@
         <v>165</v>
       </c>
       <c r="B56" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="C56" t="s">
         <v>124</v>
@@ -6338,7 +6338,7 @@
         <v>126</v>
       </c>
       <c r="B57" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="C57" t="s">
         <v>127</v>
@@ -6397,7 +6397,7 @@
         <v>99</v>
       </c>
       <c r="B58" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="C58" t="s">
         <v>107</v>
@@ -6462,10 +6462,10 @@
     </row>
     <row r="59" spans="1:27" ht="71.25" hidden="1">
       <c r="A59" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="B59" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="C59" t="s">
         <v>88</v>
@@ -6604,10 +6604,10 @@
     </row>
     <row r="61" spans="1:27" ht="42.75" hidden="1">
       <c r="A61" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="B61" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="C61" t="s">
         <v>109</v>
@@ -6672,10 +6672,10 @@
     </row>
     <row r="62" spans="1:27" ht="42.75" hidden="1">
       <c r="A62" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="B62" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="C62" t="s">
         <v>92</v>
@@ -6743,7 +6743,7 @@
         <v>22</v>
       </c>
       <c r="B63" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="C63" t="s">
         <v>96</v>
@@ -6808,10 +6808,10 @@
     </row>
     <row r="64" spans="1:27" ht="42.75" hidden="1">
       <c r="A64" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="B64" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="C64" t="s">
         <v>94</v>
@@ -6879,7 +6879,7 @@
         <v>23</v>
       </c>
       <c r="B65" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="C65" t="s">
         <v>121</v>
@@ -6938,7 +6938,7 @@
         <v>24</v>
       </c>
       <c r="B66" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="C66" t="s">
         <v>120</v>
@@ -6992,12 +6992,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="67" spans="1:27" ht="99.75" hidden="1">
+    <row r="67" spans="1:27" ht="99.75">
       <c r="A67" t="s">
         <v>547</v>
       </c>
       <c r="B67" t="s">
-        <v>624</v>
+        <v>822</v>
       </c>
       <c r="C67" t="s">
         <v>85</v>
@@ -7066,12 +7066,12 @@
         <v>86</v>
       </c>
     </row>
-    <row r="68" spans="1:27" ht="85.5" hidden="1">
+    <row r="68" spans="1:27" ht="85.5">
       <c r="A68" t="s">
         <v>168</v>
       </c>
       <c r="B68" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="C68" t="s">
         <v>85</v>
@@ -7145,7 +7145,7 @@
         <v>169</v>
       </c>
       <c r="B69" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="C69" t="s">
         <v>85</v>
@@ -7219,7 +7219,7 @@
         <v>25</v>
       </c>
       <c r="B70" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="C70" t="s">
         <v>114</v>
@@ -7355,7 +7355,7 @@
         <v>319</v>
       </c>
       <c r="B72" t="s">
-        <v>802</v>
+        <v>797</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>355</v>
@@ -7411,10 +7411,10 @@
     </row>
     <row r="73" spans="1:27" ht="28.5" hidden="1">
       <c r="A73" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="B73" t="s">
-        <v>803</v>
+        <v>798</v>
       </c>
       <c r="E73" s="3" t="s">
         <v>356</v>
@@ -7473,10 +7473,10 @@
         <v>316</v>
       </c>
       <c r="B74" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="U74" t="s">
-        <v>805</v>
+        <v>800</v>
       </c>
       <c r="V74" t="s">
         <v>405</v>
@@ -7487,7 +7487,7 @@
         <v>313</v>
       </c>
       <c r="B75" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="U75" t="s">
         <v>27</v>
@@ -7501,7 +7501,7 @@
         <v>314</v>
       </c>
       <c r="B76" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="U76" t="s">
         <v>27</v>
@@ -7515,7 +7515,7 @@
         <v>315</v>
       </c>
       <c r="B77" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="U77" t="s">
         <v>27</v>
@@ -7529,7 +7529,7 @@
         <v>329</v>
       </c>
       <c r="B78" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="U78" t="s">
         <v>27</v>
@@ -7543,7 +7543,7 @@
         <v>344</v>
       </c>
       <c r="B79" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="U79" t="s">
         <v>27</v>
@@ -7554,10 +7554,10 @@
     </row>
     <row r="80" spans="1:27" ht="28.5" hidden="1">
       <c r="A80" t="s">
-        <v>614</v>
+        <v>821</v>
       </c>
       <c r="B80" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="C80" t="s">
         <v>74</v>
@@ -7598,7 +7598,7 @@
         <v>325</v>
       </c>
       <c r="B81" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="U81" t="s">
         <v>27</v>
@@ -7612,7 +7612,7 @@
         <v>340</v>
       </c>
       <c r="B82" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="U82" t="s">
         <v>27</v>
@@ -7626,7 +7626,7 @@
         <v>317</v>
       </c>
       <c r="B83" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="U83" t="s">
         <v>27</v>
@@ -7640,7 +7640,7 @@
         <v>318</v>
       </c>
       <c r="B84" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="U84" t="s">
         <v>27</v>
@@ -7654,7 +7654,7 @@
         <v>28</v>
       </c>
       <c r="B85" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="C85" t="s">
         <v>68</v>
@@ -7716,7 +7716,7 @@
         <v>326</v>
       </c>
       <c r="B86" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="U86" t="s">
         <v>27</v>
@@ -7730,7 +7730,7 @@
         <v>341</v>
       </c>
       <c r="B87" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="U87" t="s">
         <v>27</v>
@@ -7739,12 +7739,12 @@
         <v>407</v>
       </c>
     </row>
-    <row r="88" spans="1:27" ht="42.75" hidden="1">
+    <row r="88" spans="1:27" ht="42.75">
       <c r="A88" t="s">
         <v>343</v>
       </c>
       <c r="B88" t="s">
-        <v>610</v>
+        <v>823</v>
       </c>
       <c r="C88" t="s">
         <v>69</v>
@@ -7801,7 +7801,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="89" spans="1:27" ht="42.75" hidden="1">
+    <row r="89" spans="1:27" ht="42.75">
       <c r="A89" t="s">
         <v>171</v>
       </c>
@@ -7958,7 +7958,7 @@
         <v>327</v>
       </c>
       <c r="B93" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="U93" t="s">
         <v>29</v>
@@ -7981,7 +7981,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="95" spans="1:27" ht="71.25">
+    <row r="95" spans="1:27" ht="71.25" hidden="1">
       <c r="A95" t="s">
         <v>229</v>
       </c>
@@ -8043,7 +8043,7 @@
         <v>34</v>
       </c>
       <c r="U95" t="s">
-        <v>806</v>
+        <v>801</v>
       </c>
       <c r="V95" t="s">
         <v>230</v>
@@ -8055,7 +8055,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="96" spans="1:27" ht="85.5">
+    <row r="96" spans="1:27" ht="85.5" hidden="1">
       <c r="A96" t="s">
         <v>235</v>
       </c>
@@ -8117,7 +8117,7 @@
         <v>34</v>
       </c>
       <c r="U96" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="V96" t="s">
         <v>236</v>
@@ -8129,12 +8129,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="97" spans="1:27" ht="71.25">
+    <row r="97" spans="1:27" ht="71.25" hidden="1">
       <c r="A97" t="s">
         <v>241</v>
       </c>
       <c r="B97" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="C97" t="s">
         <v>231</v>
@@ -8191,7 +8191,7 @@
         <v>34</v>
       </c>
       <c r="U97" t="s">
-        <v>807</v>
+        <v>802</v>
       </c>
       <c r="V97" t="s">
         <v>243</v>
@@ -8203,12 +8203,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="98" spans="1:27" ht="71.25">
+    <row r="98" spans="1:27" ht="71.25" hidden="1">
       <c r="A98" t="s">
         <v>242</v>
       </c>
       <c r="B98" t="s">
-        <v>815</v>
+        <v>810</v>
       </c>
       <c r="C98" t="s">
         <v>231</v>
@@ -8265,7 +8265,7 @@
         <v>34</v>
       </c>
       <c r="U98" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="V98" t="s">
         <v>230</v>
@@ -8277,12 +8277,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="99" spans="1:27" ht="57">
+    <row r="99" spans="1:27" ht="57" hidden="1">
       <c r="A99" t="s">
-        <v>816</v>
+        <v>811</v>
       </c>
       <c r="B99" t="s">
-        <v>687</v>
+        <v>682</v>
       </c>
       <c r="C99" t="s">
         <v>231</v>
@@ -8336,7 +8336,7 @@
         <v>34</v>
       </c>
       <c r="U99" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
       <c r="V99" t="s">
         <v>230</v>
@@ -8353,7 +8353,7 @@
         <v>251</v>
       </c>
       <c r="B100" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="C100" t="s">
         <v>253</v>
@@ -8373,10 +8373,10 @@
     </row>
     <row r="101" spans="1:27" hidden="1">
       <c r="A101" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="B101" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="C101" t="s">
         <v>258</v>
@@ -8417,10 +8417,10 @@
     </row>
     <row r="102" spans="1:27" hidden="1">
       <c r="A102" t="s">
+        <v>657</v>
+      </c>
+      <c r="B102" t="s">
         <v>661</v>
-      </c>
-      <c r="B102" t="s">
-        <v>665</v>
       </c>
       <c r="C102" t="s">
         <v>277</v>
@@ -8464,10 +8464,10 @@
     </row>
     <row r="103" spans="1:27" hidden="1">
       <c r="A103" t="s">
+        <v>658</v>
+      </c>
+      <c r="B103" t="s">
         <v>662</v>
-      </c>
-      <c r="B103" t="s">
-        <v>666</v>
       </c>
       <c r="C103" t="s">
         <v>289</v>
@@ -8545,13 +8545,10 @@
   <autoFilter ref="A1:W107">
     <filterColumn colId="0">
       <filters>
-        <filter val="少年儿童馆亲子阅览区"/>
-        <filter val="少年儿童馆青少年阅览区"/>
-        <filter val="少年儿童馆数字共享空间"/>
-        <filter val="少年儿童馆数字资源体验区"/>
-        <filter val="少年儿童馆主题活动区"/>
-        <filter val="总馆北区_F1_少年儿童馆_1"/>
-        <filter val="总馆北区_F2_少年儿童馆_2"/>
+        <filter val="家谱旧方志阅览室"/>
+        <filter val="旧方志阅览室"/>
+        <filter val="年鉴新方志阅览室"/>
+        <filter val="新方志阅览室"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -8563,10 +8560,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:H88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
@@ -8608,7 +8604,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="28.5" hidden="1">
+    <row r="2" spans="1:8" ht="28.5">
       <c r="A2" s="8" t="s">
         <v>414</v>
       </c>
@@ -8622,7 +8618,7 @@
         <v>39011882</v>
       </c>
     </row>
-    <row r="3" spans="1:8" hidden="1">
+    <row r="3" spans="1:8">
       <c r="A3" s="8" t="s">
         <v>416</v>
       </c>
@@ -8637,12 +8633,12 @@
         <v>414</v>
       </c>
     </row>
-    <row r="4" spans="1:8" hidden="1">
+    <row r="4" spans="1:8">
       <c r="A4" s="8" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="10">
@@ -8655,12 +8651,12 @@
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" spans="1:8" ht="28.5" hidden="1">
+    <row r="5" spans="1:8" ht="28.5">
       <c r="A5" s="8" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="10">
@@ -8675,12 +8671,12 @@
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" spans="1:8" ht="28.5" hidden="1">
+    <row r="6" spans="1:8" ht="28.5">
       <c r="A6" s="8" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="10">
@@ -8695,12 +8691,12 @@
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:8" ht="28.5" hidden="1">
+    <row r="7" spans="1:8" ht="28.5">
       <c r="A7" s="8" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="10" t="s">
@@ -8715,12 +8711,12 @@
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="1:8" hidden="1">
+    <row r="8" spans="1:8">
       <c r="A8" s="8" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="10" t="s">
@@ -8735,12 +8731,12 @@
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="1:8" ht="28.5" hidden="1">
+    <row r="9" spans="1:8" ht="28.5">
       <c r="A9" s="8" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="10" t="s">
@@ -8755,12 +8751,12 @@
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="1:8" ht="28.5" hidden="1">
+    <row r="10" spans="1:8" ht="28.5">
       <c r="A10" s="8" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="10" t="s">
@@ -8775,12 +8771,12 @@
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="1:8" hidden="1">
+    <row r="11" spans="1:8">
       <c r="A11" s="8" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="10">
@@ -8793,12 +8789,12 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:8" hidden="1">
+    <row r="12" spans="1:8">
       <c r="A12" s="8" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="10" t="s">
@@ -8813,12 +8809,12 @@
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" spans="1:8" ht="28.5" hidden="1">
+    <row r="13" spans="1:8" ht="28.5">
       <c r="A13" s="8" t="s">
         <v>428</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="C13" s="9"/>
       <c r="D13" s="10" t="s">
@@ -8833,12 +8829,12 @@
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
     </row>
-    <row r="14" spans="1:8" ht="28.5" hidden="1">
+    <row r="14" spans="1:8" ht="28.5">
       <c r="A14" s="8" t="s">
-        <v>710</v>
+        <v>705</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="10" t="s">
@@ -8853,12 +8849,12 @@
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
     </row>
-    <row r="15" spans="1:8" ht="28.5" hidden="1">
+    <row r="15" spans="1:8" ht="28.5">
       <c r="A15" s="8" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="10">
@@ -8873,12 +8869,12 @@
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
     </row>
-    <row r="16" spans="1:8" ht="42.75" hidden="1">
+    <row r="16" spans="1:8" ht="42.75">
       <c r="A16" s="8" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="10">
@@ -8905,7 +8901,7 @@
         <v>15572320</v>
       </c>
       <c r="E17" t="s">
-        <v>822</v>
+        <v>817</v>
       </c>
       <c r="F17" s="8" t="s">
         <v>414</v>
@@ -8913,17 +8909,17 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="8" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="C18" s="9"/>
       <c r="D18" s="10">
         <v>8500239</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>823</v>
+        <v>818</v>
       </c>
       <c r="F18" s="6" t="s">
         <v>431</v>
@@ -8931,10 +8927,10 @@
     </row>
     <row r="19" spans="1:8" ht="28.5">
       <c r="A19" s="8" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="C19" s="9"/>
       <c r="D19" s="10">
@@ -8954,7 +8950,7 @@
         <v>433</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="12"/>
@@ -8967,7 +8963,7 @@
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
     </row>
-    <row r="21" spans="1:8" hidden="1">
+    <row r="21" spans="1:8">
       <c r="A21" s="8" t="s">
         <v>436</v>
       </c>
@@ -8979,18 +8975,18 @@
         <v>437</v>
       </c>
       <c r="E21" t="s">
-        <v>821</v>
+        <v>816</v>
       </c>
       <c r="F21" s="8" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="22" spans="1:8" hidden="1">
+    <row r="22" spans="1:8">
       <c r="A22" s="8" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="14" t="s">
@@ -9005,12 +9001,12 @@
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
     </row>
-    <row r="23" spans="1:8" ht="28.5" hidden="1">
+    <row r="23" spans="1:8" ht="28.5">
       <c r="A23" s="8" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
       <c r="C23" s="9"/>
       <c r="D23" s="13" t="s">
@@ -9025,12 +9021,12 @@
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
     </row>
-    <row r="24" spans="1:8" ht="42.75" hidden="1">
+    <row r="24" spans="1:8" ht="42.75">
       <c r="A24" s="8" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="C24" s="9"/>
       <c r="D24" s="15"/>
@@ -9043,7 +9039,7 @@
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
     </row>
-    <row r="25" spans="1:8" ht="57" hidden="1">
+    <row r="25" spans="1:8" ht="57">
       <c r="A25" s="8" t="s">
         <v>442</v>
       </c>
@@ -9060,12 +9056,12 @@
         <v>414</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="28.5" hidden="1">
+    <row r="26" spans="1:8" ht="28.5">
       <c r="A26" s="8" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="C26" s="9" t="s">
         <v>444</v>
@@ -9080,12 +9076,12 @@
         <v>446</v>
       </c>
     </row>
-    <row r="27" spans="1:8" hidden="1">
+    <row r="27" spans="1:8">
       <c r="A27" s="8" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="C27" s="9" t="s">
         <v>447</v>
@@ -9100,12 +9096,12 @@
         <v>446</v>
       </c>
     </row>
-    <row r="28" spans="1:8" hidden="1">
+    <row r="28" spans="1:8">
       <c r="A28" s="6" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" t="s">
@@ -9118,12 +9114,12 @@
         <v>446</v>
       </c>
     </row>
-    <row r="29" spans="1:8" hidden="1">
+    <row r="29" spans="1:8">
       <c r="A29" s="8" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="C29" s="9"/>
       <c r="D29" t="s">
@@ -9136,12 +9132,12 @@
         <v>446</v>
       </c>
     </row>
-    <row r="30" spans="1:8" hidden="1">
+    <row r="30" spans="1:8">
       <c r="A30" s="6" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="10">
@@ -9154,12 +9150,12 @@
         <v>446</v>
       </c>
     </row>
-    <row r="31" spans="1:8" hidden="1">
+    <row r="31" spans="1:8">
       <c r="A31" s="8" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="C31" s="9"/>
       <c r="D31" s="10">
@@ -9174,12 +9170,12 @@
       <c r="G31" s="16"/>
       <c r="H31" s="16"/>
     </row>
-    <row r="32" spans="1:8" hidden="1">
+    <row r="32" spans="1:8">
       <c r="A32" s="8" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="C32" s="9"/>
       <c r="D32" s="10">
@@ -9194,7 +9190,7 @@
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
     </row>
-    <row r="33" spans="1:8" hidden="1">
+    <row r="33" spans="1:8">
       <c r="A33" s="8" t="s">
         <v>549</v>
       </c>
@@ -9212,12 +9208,12 @@
         <v>446</v>
       </c>
     </row>
-    <row r="34" spans="1:8" hidden="1">
+    <row r="34" spans="1:8">
       <c r="A34" s="8" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="C34" s="9"/>
       <c r="D34" s="17" t="s">
@@ -9228,12 +9224,12 @@
       </c>
       <c r="F34" s="6"/>
     </row>
-    <row r="35" spans="1:8" hidden="1">
+    <row r="35" spans="1:8">
       <c r="A35" s="8" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="C35" s="9"/>
       <c r="D35" s="17" t="s">
@@ -9246,12 +9242,12 @@
         <v>446</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="28.5" hidden="1">
+    <row r="36" spans="1:8" ht="28.5">
       <c r="A36" s="8" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="C36" s="9"/>
       <c r="D36" s="10" t="s">
@@ -9264,12 +9260,12 @@
         <v>446</v>
       </c>
     </row>
-    <row r="37" spans="1:8" hidden="1">
+    <row r="37" spans="1:8">
       <c r="A37" s="8" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
       <c r="C37" s="9"/>
       <c r="D37" s="10" t="s">
@@ -9280,12 +9276,12 @@
       </c>
       <c r="F37" s="6"/>
     </row>
-    <row r="38" spans="1:8" hidden="1">
+    <row r="38" spans="1:8">
       <c r="A38" s="18" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="B38" s="18" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="C38" s="19"/>
       <c r="D38" s="10">
@@ -9298,12 +9294,12 @@
         <v>446</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="28.5" hidden="1">
+    <row r="39" spans="1:8" ht="28.5">
       <c r="A39" s="8" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="C39" s="9"/>
       <c r="D39" s="10">
@@ -9316,12 +9312,12 @@
         <v>446</v>
       </c>
     </row>
-    <row r="40" spans="1:8" hidden="1">
+    <row r="40" spans="1:8">
       <c r="A40" s="18" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="B40" s="18" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="C40" s="19"/>
       <c r="D40" s="10">
@@ -9334,7 +9330,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="42.75" hidden="1">
+    <row r="41" spans="1:8" ht="42.75">
       <c r="A41" s="8" t="s">
         <v>550</v>
       </c>
@@ -9351,12 +9347,12 @@
         <v>414</v>
       </c>
     </row>
-    <row r="42" spans="1:8" hidden="1">
+    <row r="42" spans="1:8">
       <c r="A42" s="8" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="C42" s="9"/>
       <c r="D42" t="s">
@@ -9369,12 +9365,12 @@
         <v>551</v>
       </c>
     </row>
-    <row r="43" spans="1:8" hidden="1">
+    <row r="43" spans="1:8">
       <c r="A43" s="8" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="C43" s="9"/>
       <c r="D43" t="s">
@@ -9387,7 +9383,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="44" spans="1:8" hidden="1">
+    <row r="44" spans="1:8">
       <c r="A44" s="8" t="s">
         <v>464</v>
       </c>
@@ -9405,7 +9401,7 @@
       <c r="G44" s="6"/>
       <c r="H44" s="6"/>
     </row>
-    <row r="45" spans="1:8" hidden="1">
+    <row r="45" spans="1:8">
       <c r="A45" s="8" t="s">
         <v>466</v>
       </c>
@@ -9425,7 +9421,7 @@
       <c r="G45" s="6"/>
       <c r="H45" s="6"/>
     </row>
-    <row r="46" spans="1:8" hidden="1">
+    <row r="46" spans="1:8">
       <c r="A46" s="8" t="s">
         <v>470</v>
       </c>
@@ -9445,7 +9441,7 @@
       <c r="G46" s="6"/>
       <c r="H46" s="6"/>
     </row>
-    <row r="47" spans="1:8" hidden="1">
+    <row r="47" spans="1:8">
       <c r="A47" s="8" t="s">
         <v>472</v>
       </c>
@@ -9465,7 +9461,7 @@
       <c r="G47" s="6"/>
       <c r="H47" s="6"/>
     </row>
-    <row r="48" spans="1:8" hidden="1">
+    <row r="48" spans="1:8">
       <c r="A48" s="8" t="s">
         <v>475</v>
       </c>
@@ -9485,12 +9481,12 @@
       <c r="G48" s="6"/>
       <c r="H48" s="6"/>
     </row>
-    <row r="49" spans="1:8" hidden="1">
+    <row r="49" spans="1:8">
       <c r="A49" s="8" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
       <c r="C49" s="9"/>
       <c r="D49" s="20" t="s">
@@ -9505,12 +9501,12 @@
       <c r="G49" s="6"/>
       <c r="H49" s="6"/>
     </row>
-    <row r="50" spans="1:8" hidden="1">
+    <row r="50" spans="1:8">
       <c r="A50" s="8" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
       <c r="C50" s="9"/>
       <c r="D50" s="20" t="s">
@@ -9525,12 +9521,12 @@
       <c r="G50" s="6"/>
       <c r="H50" s="6"/>
     </row>
-    <row r="51" spans="1:8" hidden="1">
+    <row r="51" spans="1:8">
       <c r="A51" s="8" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="C51" s="9"/>
       <c r="D51" s="20" t="s">
@@ -9545,12 +9541,12 @@
       <c r="G51" s="6"/>
       <c r="H51" s="6"/>
     </row>
-    <row r="52" spans="1:8" hidden="1">
+    <row r="52" spans="1:8">
       <c r="A52" s="8" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="C52" s="9"/>
       <c r="D52" s="20" t="s">
@@ -9565,12 +9561,12 @@
       <c r="G52" s="6"/>
       <c r="H52" s="6"/>
     </row>
-    <row r="53" spans="1:8" hidden="1">
+    <row r="53" spans="1:8">
       <c r="A53" s="8" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>768</v>
+        <v>763</v>
       </c>
       <c r="C53" s="9"/>
       <c r="D53" s="20" t="s">
@@ -9585,7 +9581,7 @@
       <c r="G53" s="6"/>
       <c r="H53" s="6"/>
     </row>
-    <row r="54" spans="1:8" hidden="1">
+    <row r="54" spans="1:8">
       <c r="A54" s="18" t="s">
         <v>483</v>
       </c>
@@ -9600,7 +9596,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="55" spans="1:8" hidden="1">
+    <row r="55" spans="1:8">
       <c r="A55" s="21" t="s">
         <v>485</v>
       </c>
@@ -9615,7 +9611,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="56" spans="1:8" hidden="1">
+    <row r="56" spans="1:8">
       <c r="A56" s="21" t="s">
         <v>487</v>
       </c>
@@ -9632,7 +9628,7 @@
       <c r="G56" s="6"/>
       <c r="H56" s="6"/>
     </row>
-    <row r="57" spans="1:8" hidden="1">
+    <row r="57" spans="1:8">
       <c r="A57" s="21" t="s">
         <v>490</v>
       </c>
@@ -9649,7 +9645,7 @@
       <c r="G57" s="6"/>
       <c r="H57" s="6"/>
     </row>
-    <row r="58" spans="1:8" hidden="1">
+    <row r="58" spans="1:8">
       <c r="A58" s="21" t="s">
         <v>492</v>
       </c>
@@ -9666,7 +9662,7 @@
       <c r="G58" s="6"/>
       <c r="H58" s="6"/>
     </row>
-    <row r="59" spans="1:8" hidden="1">
+    <row r="59" spans="1:8">
       <c r="A59" s="21" t="s">
         <v>493</v>
       </c>
@@ -9683,7 +9679,7 @@
       <c r="G59" s="6"/>
       <c r="H59" s="6"/>
     </row>
-    <row r="60" spans="1:8" hidden="1">
+    <row r="60" spans="1:8">
       <c r="A60" s="24" t="s">
         <v>495</v>
       </c>
@@ -9698,7 +9694,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="61" spans="1:8" hidden="1">
+    <row r="61" spans="1:8">
       <c r="A61" s="26" t="s">
         <v>497</v>
       </c>
@@ -9715,7 +9711,7 @@
       <c r="G61" s="6"/>
       <c r="H61" s="6"/>
     </row>
-    <row r="62" spans="1:8" hidden="1">
+    <row r="62" spans="1:8">
       <c r="A62" s="26" t="s">
         <v>499</v>
       </c>
@@ -9732,7 +9728,7 @@
       <c r="G62" s="6"/>
       <c r="H62" s="6"/>
     </row>
-    <row r="63" spans="1:8" hidden="1">
+    <row r="63" spans="1:8">
       <c r="A63" s="26" t="s">
         <v>501</v>
       </c>
@@ -9749,7 +9745,7 @@
       <c r="G63" s="6"/>
       <c r="H63" s="6"/>
     </row>
-    <row r="64" spans="1:8" hidden="1">
+    <row r="64" spans="1:8">
       <c r="A64" s="26" t="s">
         <v>503</v>
       </c>
@@ -9766,7 +9762,7 @@
       <c r="G64" s="6"/>
       <c r="H64" s="6"/>
     </row>
-    <row r="65" spans="1:8" hidden="1">
+    <row r="65" spans="1:8">
       <c r="A65" s="24" t="s">
         <v>505</v>
       </c>
@@ -9783,7 +9779,7 @@
       <c r="G65" s="6"/>
       <c r="H65" s="6"/>
     </row>
-    <row r="66" spans="1:8" hidden="1">
+    <row r="66" spans="1:8">
       <c r="A66" s="8" t="s">
         <v>500</v>
       </c>
@@ -9795,12 +9791,12 @@
         <v>507</v>
       </c>
     </row>
-    <row r="67" spans="1:8" hidden="1">
+    <row r="67" spans="1:8">
       <c r="A67" s="6" t="s">
         <v>508</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>769</v>
+        <v>764</v>
       </c>
       <c r="C67" s="7"/>
       <c r="D67" s="29">
@@ -9815,7 +9811,7 @@
       <c r="G67" s="6"/>
       <c r="H67" s="6"/>
     </row>
-    <row r="68" spans="1:8" hidden="1">
+    <row r="68" spans="1:8">
       <c r="A68" s="6" t="s">
         <v>511</v>
       </c>
@@ -9875,7 +9871,7 @@
       <c r="G70" s="6"/>
       <c r="H70" s="6"/>
     </row>
-    <row r="71" spans="1:8" hidden="1">
+    <row r="71" spans="1:8">
       <c r="A71" s="6" t="s">
         <v>517</v>
       </c>
@@ -9895,12 +9891,12 @@
       <c r="G71" s="6"/>
       <c r="H71" s="6"/>
     </row>
-    <row r="72" spans="1:8" hidden="1">
+    <row r="72" spans="1:8">
       <c r="A72" s="32" t="s">
         <v>519</v>
       </c>
       <c r="B72" s="32" t="s">
-        <v>777</v>
+        <v>772</v>
       </c>
       <c r="C72" s="33"/>
       <c r="D72" s="31">
@@ -9915,7 +9911,7 @@
       <c r="G72" s="6"/>
       <c r="H72" s="6"/>
     </row>
-    <row r="73" spans="1:8" hidden="1">
+    <row r="73" spans="1:8">
       <c r="A73" s="6" t="s">
         <v>520</v>
       </c>
@@ -9935,7 +9931,7 @@
       <c r="G73" s="6"/>
       <c r="H73" s="6"/>
     </row>
-    <row r="74" spans="1:8" hidden="1">
+    <row r="74" spans="1:8">
       <c r="A74" s="6" t="s">
         <v>523</v>
       </c>
@@ -9955,12 +9951,12 @@
       <c r="G74" s="6"/>
       <c r="H74" s="6"/>
     </row>
-    <row r="75" spans="1:8" hidden="1">
+    <row r="75" spans="1:8">
       <c r="A75" s="6" t="s">
         <v>525</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
       <c r="C75" s="7"/>
       <c r="D75" s="31">
@@ -9975,7 +9971,7 @@
       <c r="G75" s="6"/>
       <c r="H75" s="6"/>
     </row>
-    <row r="76" spans="1:8" hidden="1">
+    <row r="76" spans="1:8">
       <c r="A76" s="6" t="s">
         <v>526</v>
       </c>
@@ -9995,7 +9991,7 @@
       <c r="G76" s="6"/>
       <c r="H76" s="6"/>
     </row>
-    <row r="77" spans="1:8" hidden="1">
+    <row r="77" spans="1:8">
       <c r="A77" s="6" t="s">
         <v>528</v>
       </c>
@@ -10015,7 +10011,7 @@
       <c r="G77" s="6"/>
       <c r="H77" s="6"/>
     </row>
-    <row r="78" spans="1:8" hidden="1">
+    <row r="78" spans="1:8">
       <c r="A78" s="6" t="s">
         <v>530</v>
       </c>
@@ -10035,7 +10031,7 @@
       <c r="G78" s="6"/>
       <c r="H78" s="6"/>
     </row>
-    <row r="79" spans="1:8" hidden="1">
+    <row r="79" spans="1:8">
       <c r="A79" s="6" t="s">
         <v>532</v>
       </c>
@@ -10055,7 +10051,7 @@
       <c r="G79" s="6"/>
       <c r="H79" s="6"/>
     </row>
-    <row r="80" spans="1:8" hidden="1">
+    <row r="80" spans="1:8">
       <c r="A80" s="6" t="s">
         <v>534</v>
       </c>
@@ -10075,12 +10071,12 @@
       <c r="G80" s="6"/>
       <c r="H80" s="6"/>
     </row>
-    <row r="81" spans="1:8" hidden="1">
+    <row r="81" spans="1:8">
       <c r="A81" s="6" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
       <c r="C81" s="7"/>
       <c r="D81" s="31">
@@ -10095,12 +10091,12 @@
       <c r="G81" s="6"/>
       <c r="H81" s="6"/>
     </row>
-    <row r="82" spans="1:8" hidden="1">
+    <row r="82" spans="1:8">
       <c r="A82" s="6" t="s">
         <v>537</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
       <c r="C82" s="7"/>
       <c r="D82" s="31">
@@ -10115,12 +10111,12 @@
       <c r="G82" s="6"/>
       <c r="H82" s="6"/>
     </row>
-    <row r="83" spans="1:8" hidden="1">
+    <row r="83" spans="1:8">
       <c r="A83" s="6" t="s">
-        <v>817</v>
+        <v>812</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>818</v>
+        <v>813</v>
       </c>
       <c r="C83" s="7"/>
       <c r="D83" s="31">
@@ -10135,12 +10131,12 @@
       <c r="G83" s="6"/>
       <c r="H83" s="6"/>
     </row>
-    <row r="84" spans="1:8" hidden="1">
+    <row r="84" spans="1:8">
       <c r="A84" s="6" t="s">
-        <v>819</v>
+        <v>814</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>820</v>
+        <v>815</v>
       </c>
       <c r="C84" s="7"/>
       <c r="D84" s="31">
@@ -10155,12 +10151,12 @@
       <c r="G84" s="6"/>
       <c r="H84" s="6"/>
     </row>
-    <row r="85" spans="1:8" hidden="1">
+    <row r="85" spans="1:8">
       <c r="A85" s="6" t="s">
         <v>538</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
       <c r="C85" s="7"/>
       <c r="D85" s="31">
@@ -10175,7 +10171,7 @@
       <c r="G85" s="6"/>
       <c r="H85" s="6"/>
     </row>
-    <row r="86" spans="1:8" hidden="1">
+    <row r="86" spans="1:8">
       <c r="A86" s="6" t="s">
         <v>464</v>
       </c>
@@ -10193,12 +10189,12 @@
       <c r="G86" s="6"/>
       <c r="H86" s="6"/>
     </row>
-    <row r="87" spans="1:8" hidden="1">
+    <row r="87" spans="1:8">
       <c r="A87" s="6" t="s">
         <v>540</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
       <c r="C87" s="7"/>
       <c r="D87" s="31">
@@ -10213,12 +10209,12 @@
       <c r="G87" s="6"/>
       <c r="H87" s="6"/>
     </row>
-    <row r="88" spans="1:8" hidden="1">
+    <row r="88" spans="1:8">
       <c r="A88" s="6" t="s">
         <v>542</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>775</v>
+        <v>770</v>
       </c>
       <c r="C88" s="7"/>
       <c r="D88" s="31">
@@ -10234,18 +10230,7 @@
       <c r="H88" s="6"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H88">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="电子期刊（种）"/>
-        <filter val="期刊"/>
-        <filter val="期刊（数字资源）"/>
-        <filter val="外文期刊"/>
-        <filter val="中文_港澳台及海外期刊"/>
-        <filter val="中文期刊"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:H88"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -10288,10 +10273,10 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
       <c r="B2" t="s">
-        <v>779</v>
+        <v>774</v>
       </c>
       <c r="C2" t="s">
         <v>362</v>
@@ -10305,10 +10290,10 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="B3" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="C3" t="s">
         <v>362</v>
@@ -10322,10 +10307,10 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="B4" t="s">
-        <v>783</v>
+        <v>778</v>
       </c>
       <c r="C4" t="s">
         <v>362</v>
@@ -10339,10 +10324,10 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>784</v>
+        <v>779</v>
       </c>
       <c r="B5" t="s">
-        <v>785</v>
+        <v>780</v>
       </c>
       <c r="C5" t="s">
         <v>362</v>
@@ -10356,10 +10341,10 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>786</v>
+        <v>781</v>
       </c>
       <c r="B6" t="s">
-        <v>787</v>
+        <v>782</v>
       </c>
       <c r="C6" t="s">
         <v>362</v>
@@ -10373,10 +10358,10 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>788</v>
+        <v>783</v>
       </c>
       <c r="B7" t="s">
-        <v>789</v>
+        <v>784</v>
       </c>
       <c r="C7" t="s">
         <v>369</v>
@@ -10390,10 +10375,10 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>790</v>
+        <v>785</v>
       </c>
       <c r="B8" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="C8" t="s">
         <v>369</v>
@@ -10407,10 +10392,10 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>792</v>
+        <v>787</v>
       </c>
       <c r="B9" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
       <c r="C9" t="s">
         <v>369</v>
@@ -10424,10 +10409,10 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>794</v>
+        <v>789</v>
       </c>
       <c r="B10" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="C10" t="s">
         <v>369</v>
@@ -10441,10 +10426,10 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="B11" t="s">
-        <v>797</v>
+        <v>792</v>
       </c>
       <c r="C11" t="s">
         <v>369</v>
@@ -10512,7 +10497,7 @@
         <v>383</v>
       </c>
       <c r="B15" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C15" t="s">
         <v>411</v>
@@ -10529,7 +10514,7 @@
         <v>384</v>
       </c>
       <c r="B16" t="s">
-        <v>799</v>
+        <v>794</v>
       </c>
       <c r="C16" t="s">
         <v>411</v>
@@ -10543,10 +10528,10 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>800</v>
+        <v>795</v>
       </c>
       <c r="B17" t="s">
-        <v>801</v>
+        <v>796</v>
       </c>
       <c r="C17" t="s">
         <v>412</v>
